--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44923,6 +44923,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44958,6 +44958,43 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44995,6 +44995,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>10500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45030,6 +45030,43 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45067,6 +45067,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45102,6 +45102,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45139,6 +45139,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45176,6 +45176,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45211,6 +45211,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45248,6 +45248,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45285,6 +45285,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45322,6 +45322,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45357,6 +45357,80 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45431,6 +45431,80 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45505,6 +45505,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45542,6 +45542,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45579,6 +45579,43 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45616,6 +45616,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45651,6 +45651,80 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45725,6 +45725,43 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45762,6 +45762,41 @@
         </is>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>16500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1847"/>
+  <dimension ref="A1:I1848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67007,6 +67007,43 @@
         <v>16500</v>
       </c>
     </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1848" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1848" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1848"/>
+  <dimension ref="A1:I1849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67044,6 +67044,43 @@
         </is>
       </c>
     </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1849" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1849" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1849"/>
+  <dimension ref="A1:I1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67081,6 +67081,41 @@
         </is>
       </c>
     </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1850"/>
+  <dimension ref="A1:I1851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67116,6 +67116,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1851"/>
+  <dimension ref="A1:I1852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67151,6 +67151,43 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1852" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1852"/>
+  <dimension ref="A1:I1853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67188,6 +67188,43 @@
         </is>
       </c>
     </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1853" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1853" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1853"/>
+  <dimension ref="A1:I1854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67225,6 +67225,43 @@
         </is>
       </c>
     </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1854" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1854" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1854"/>
+  <dimension ref="A1:I1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67262,6 +67262,43 @@
         </is>
       </c>
     </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1855" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1855" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1855"/>
+  <dimension ref="A1:I1856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67299,6 +67299,41 @@
         </is>
       </c>
     </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1856" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1856"/>
+  <dimension ref="A1:I1857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67334,6 +67334,43 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1857" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1857" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1857"/>
+  <dimension ref="A1:I1858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67371,6 +67371,43 @@
         </is>
       </c>
     </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1858" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1858" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1858"/>
+  <dimension ref="A1:I1859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67408,6 +67408,41 @@
         </is>
       </c>
     </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1859" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1859" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1859"/>
+  <dimension ref="A1:I1860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67443,6 +67443,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1860" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1860" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1860"/>
+  <dimension ref="A1:I1861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67478,6 +67478,43 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1861" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1861" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1861" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8044.xlsx
+++ b/data/8044.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1861"/>
+  <dimension ref="A1:I1862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67515,6 +67515,43 @@
         </is>
       </c>
     </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
+      <c r="E1862" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1862" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1862" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
